--- a/Data/Andromeda/Useful Marks - 3506573327/1.6/3506573327.xlsx
+++ b/Data/Andromeda/Useful Marks - 3506573327/1.6/3506573327.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="680">
   <si>
     <t xml:space="preserve">Class+Node [(Identifier (Key)]</t>
   </si>
@@ -241,7 +241,7 @@
     <t xml:space="preserve">Any pills</t>
   </si>
   <si>
-    <t xml:space="preserve">약물 복용</t>
+    <t xml:space="preserve">알약 복용</t>
   </si>
   <si>
     <t xml:space="preserve">Keyed+MarkerPsychite</t>
@@ -1102,6 +1102,126 @@
     <t xml:space="preserve">아이콘 크기 (x{0})</t>
   </si>
   <si>
+    <t xml:space="preserve">Keyed+ConditionUpdateRate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ConditionUpdateRate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conditions update rate (x{0})</t>
+  </si>
+  <si>
+    <t xml:space="preserve">조건 업데이트 빈도 (x{0})</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+FinalSolveInfo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FinalSolveInfo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checking for: {0}\nFinal: {1}\n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{0}의 조건 충족 여부\n결과: {1}\n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+ConditionPass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ConditionPass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">충족</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+ConditionFail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ConditionFail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">불충족</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+HediffSubMenuConditions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HediffSubMenuConditions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hediffs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">헤디프</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+SkillSubMenuConditions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SkillSubMenuConditions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skills</t>
+  </si>
+  <si>
+    <t xml:space="preserve">기술</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+IdeologySubMenuConditions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IdeologySubMenuConditions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ideology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이데올로기</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+BiotechSubMenuConditions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiotechSubMenuConditions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biotech</t>
+  </si>
+  <si>
+    <t xml:space="preserve">바이오테크</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+RoyaltySubMenuConditions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RoyaltySubMenuConditions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Royalty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">로얄티</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+ConditionRoyalTitle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ConditionRoyalTitle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Royal title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">작위</t>
+  </si>
+  <si>
     <t xml:space="preserve">Keyed+Marker_Animal</t>
   </si>
   <si>
@@ -1708,7 +1828,7 @@
     <t xml:space="preserve">Waiting</t>
   </si>
   <si>
-    <t xml:space="preserve">대기 중</t>
+    <t xml:space="preserve">대기</t>
   </si>
   <si>
     <t xml:space="preserve">Keyed+Marker_Weak</t>
@@ -1774,7 +1894,7 @@
     <t xml:space="preserve">Protected</t>
   </si>
   <si>
-    <t xml:space="preserve">보호받음</t>
+    <t xml:space="preserve">보호</t>
   </si>
   <si>
     <t xml:space="preserve">Keyed+Marker_AnomalyScience</t>
@@ -2222,10 +2342,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F163"/>
+  <dimension ref="A1:F173"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+      <selection pane="topLeft" activeCell="D28" activeCellId="0" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.6328125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3755,7 +3875,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
         <v>356</v>
       </c>
@@ -3772,7 +3892,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
         <v>360</v>
       </c>
@@ -3789,7 +3909,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
         <v>364</v>
       </c>
@@ -4024,177 +4144,177 @@
         <v>418</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>57</v>
+        <v>419</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>458</v>
+        <v>57</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4378,503 +4498,503 @@
         <v>500</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>40</v>
+        <v>501</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>41</v>
+        <v>502</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>44</v>
+        <v>537</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>45</v>
+        <v>538</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>537</v>
+        <v>40</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>538</v>
+        <v>41</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>611</v>
+        <v>52</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>612</v>
+        <v>53</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4888,129 +5008,299 @@
         <v>614</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>264</v>
+        <v>615</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>265</v>
+        <v>616</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>414</v>
+        <v>631</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>415</v>
+        <v>632</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>639</v>
+        <v>644</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>679</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Andromeda/Useful Marks - 3506573327/1.6/3506573327.xlsx
+++ b/Data/Andromeda/Useful Marks - 3506573327/1.6/3506573327.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Main_250725" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Main_250802" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="728">
   <si>
     <t xml:space="preserve">Class+Node [(Identifier (Key)]</t>
   </si>
@@ -1220,6 +1220,150 @@
   </si>
   <si>
     <t xml:space="preserve">작위</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+BottomMarksUnderWeaponOnPortrait</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BottomMarksUnderWeaponOnPortrait</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bottom marks under weapon on portrait</t>
+  </si>
+  <si>
+    <t xml:space="preserve">하단 정렬 마커를 정착민 포트레잇 무기 아래에 표시</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+WeaponUnderPortraitOffset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WeaponUnderPortraitOffset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weapon under portrait offset {0} px</t>
+  </si>
+  <si>
+    <t xml:space="preserve">포트레잇 아래 무기 오프셋 {0} px</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+MinorPassion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MinorPassion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minor passion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">관심</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+MajorPassion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MajorPassion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Major passion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">열정적</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+AnyPassion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AnyPassion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Any passion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">열정 보유</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+NoPassion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NoPassion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No passion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">무관심</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+CopyOnlyCurrentMarker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CopyOnlyCurrentMarker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copy only current</t>
+  </si>
+  <si>
+    <t xml:space="preserve">현재 마커만 복사</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+CopyAllSelectedMarkers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CopyAllSelectedMarkers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copy all selected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">선택한 마커 전체 복사</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+PasteMarkers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PasteMarkers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paste markers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">마커 붙여넣기</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+ReplaceMarkers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ReplaceMarkers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Replace markers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">마커 대체하기</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+PasteMarkersFail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PasteMarkersFail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paste markers failed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">마커 붙여넣기 실패</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+CopyMarkers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CopyMarkers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copied {0} markers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">마커 {0}개 복사됨</t>
   </si>
   <si>
     <t xml:space="preserve">Keyed+Marker_Animal</t>
@@ -2342,10 +2486,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F173"/>
+  <dimension ref="A1:F185"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D28" activeCellId="0" sqref="D28"/>
+      <selection pane="topLeft" activeCell="G24" activeCellId="0" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.6328125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2354,9 +2498,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="37.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="23.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="75.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="73.2"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="7" style="1" width="7.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="50.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="50.72"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16383" min="8" style="1" width="7.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="9.63"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4079,7 +4224,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
         <v>404</v>
       </c>
@@ -4249,7 +4394,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
         <v>444</v>
       </c>
@@ -4314,211 +4459,211 @@
         <v>458</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>57</v>
+        <v>459</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>506</v>
+        <v>57</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4668,639 +4813,843 @@
         <v>540</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>40</v>
+        <v>541</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>41</v>
+        <v>542</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>44</v>
+        <v>577</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>45</v>
+        <v>578</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>585</v>
+        <v>40</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>586</v>
+        <v>41</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>52</v>
+        <v>615</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>53</v>
+        <v>616</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>619</v>
+        <v>44</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>620</v>
+        <v>45</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>264</v>
+        <v>657</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>265</v>
+        <v>658</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>657</v>
+        <v>52</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>658</v>
+        <v>53</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>454</v>
+        <v>671</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>455</v>
+        <v>672</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>679</v>
+        <v>684</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>727</v>
       </c>
     </row>
   </sheetData>
